--- a/ocms/src/test/resources/DownloadedFiles/IVR Config.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/IVR Config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -25,10 +25,28 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile</t>
+    <t xml:space="preserve">CEP Logic</t>
   </si>
   <si>
     <t xml:space="preserve">On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA Module 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA Module 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Take</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeat KA Module 2</t>
   </si>
 </sst>
 </file>
@@ -93,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -121,6 +139,46 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
